--- a/Manual Testing Classwork.xlsx
+++ b/Manual Testing Classwork.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C98DFCB-6481-4F12-8F72-C2B72A2B39C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4486450F-DC88-4A35-B07A-48844157F25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ACFA9E54-D31B-407D-82D8-CD29021D366E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Project Name:</t>
   </si>
@@ -157,6 +157,69 @@
   </si>
   <si>
     <t>No Comments</t>
+  </si>
+  <si>
+    <t>TC_ERP_Login_002</t>
+  </si>
+  <si>
+    <t>TC_ERP_Login_003</t>
+  </si>
+  <si>
+    <t>TC_ERP_Login_004</t>
+  </si>
+  <si>
+    <t>Enter a valid username &amp; an invalid password</t>
+  </si>
+  <si>
+    <t>Enter an invalid username &amp; a valid password</t>
+  </si>
+  <si>
+    <t>Enter an invalid username &amp; an invalid password</t>
+  </si>
+  <si>
+    <t>1. Enter valid username
+2. Enter invalid password
+3. Click on the login button</t>
+  </si>
+  <si>
+    <t>1. Enter invalid username
+2. Enter invalid password
+3. Click on the login button</t>
+  </si>
+  <si>
+    <t>1. Enter invalid username
+2. Enter valid password
+3. Click on the login button</t>
+  </si>
+  <si>
+    <t>Username: xxxxx@erp.com
+Password:
+P@ssw0rd</t>
+  </si>
+  <si>
+    <t>Username: admin@erp.com
+Password:
+xxxxxxxx</t>
+  </si>
+  <si>
+    <t>Username: xxxxx@erp.com
+Password:
+xxxxxxxx</t>
+  </si>
+  <si>
+    <t>Still remaining at the Login page</t>
+  </si>
+  <si>
+    <t>A popup message box to show an error message "Invalid Username/Password"</t>
+  </si>
+  <si>
+    <t>Messagebox got displayed</t>
+  </si>
+  <si>
+    <t>Tester_TLD0002</t>
+  </si>
+  <si>
+    <t>Tester_TLD0003</t>
   </si>
 </sst>
 </file>
@@ -168,14 +231,6 @@
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -199,8 +254,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -317,42 +378,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -361,12 +551,446 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="dd/mmm/yyyy\ \(ddd\)"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -377,6 +1001,44 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FFBC7A4-C21D-4FD7-958B-110C13C43953}" name="Table1" displayName="Table1" ref="A9:N13" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <autoFilter ref="A9:N13" xr:uid="{0FFBC7A4-C21D-4FD7-958B-110C13C43953}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{79DF1C9E-4E47-4AF7-BAAA-34AE94588CD1}" name="Test Scenario ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{AD76F6F4-C401-44BF-8D53-459CE0A5DF56}" name="Test Scenario Description" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{D26B6FFF-A077-4166-B06C-BE90A23FC725}" name="Test Case_x000a_ID" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{879B912A-C804-4A27-8660-1C9DA43B82FF}" name="Test Case_x000a_Description" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{4A6FDF38-8144-4066-9849-F93DCA732566}" name="Test Steps" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{33CDC17C-7D22-4F22-8510-411EED05D3B0}" name="Pre-Condition" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{CF0224C4-086C-4BDF-AD18-77DD2A05B54B}" name="Test Data" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{5B4DB308-C564-42FC-BAB4-FD3273704435}" name="Post-Condition" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{24D37B66-7C7C-4652-B870-0E781360FA50}" name="Expected Result" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{BA6EB154-6DAC-4B38-9743-E4F6B9824584}" name="Actual Result" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{7EF9A4E3-A4AB-4EC2-925A-C15346ABF064}" name="Status" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{905CD1D1-DE56-4D5D-853D-395C9D30B38C}" name="Executed By" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{513B72B8-C192-440A-9213-F08EB5786AC8}" name="Execution Date" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{896C2A61-1E93-4B3A-B837-E0AB337B7973}" name="Comments_x000a_(If any)" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -699,24 +1361,24 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="7.77734375" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -772,143 +1434,232 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="8" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:14" s="19" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="8" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="23">
         <v>45366</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+    <row r="11" spans="1:14" s="8" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="11">
+        <v>45367</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+    <row r="12" spans="1:14" s="8" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="11">
+        <v>45368</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+    <row r="13" spans="1:14" s="8" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="17">
+        <v>45369</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>